--- a/contract.xlsx
+++ b/contract.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\School\2020-2021\TA\TATO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\School\2020-2021\TA\Toepassingsopdracht_Talen_en_automaten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3696D49F-A205-4DB4-9BDF-C44A667FE46D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAF3424-BD50-46E6-B81E-F2C2C0CE006A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E83D5656-7D19-3449-97F9-4B82594C66D2}"/>
   </bookViews>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE3C64F-1735-EA40-B1EC-038D557541BA}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
